--- a/keyboards/sofle/keymaps/jdwh08/Magic_Map.xlsx
+++ b/keyboards/sofle/keymaps/jdwh08/Magic_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwh0\qmk_firmware\keyboards\sofle\keymaps\jdwh08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B434B714-C53D-49C1-B45F-8312C96E8D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4CB1AC-1261-42AE-9BD2-042D9955355A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{654F23E0-90FC-4EBC-913F-3128C3BE353E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="102">
   <si>
     <t>Start</t>
   </si>
@@ -263,9 +263,6 @@
     <t>ve</t>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
     <t>bout</t>
   </si>
   <si>
@@ -335,7 +332,16 @@
     <t>esterday</t>
   </si>
   <si>
-    <t>your</t>
+    <t>eep</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -700,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C197848-4BBF-47DB-B548-8A9C55A6D290}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -711,16 +717,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -772,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -798,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -824,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -876,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -902,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -928,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -954,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1025,14 +1031,14 @@
       <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="H13" t="s">
-        <v>43</v>
+      <c r="H13" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="J13" t="s">
         <v>7</v>
       </c>
-      <c r="K13" t="s">
-        <v>43</v>
+      <c r="K13" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1058,7 +1064,7 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1084,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1110,7 +1116,7 @@
         <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1136,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1162,7 +1168,7 @@
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1188,7 +1194,7 @@
         <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1214,7 +1220,7 @@
         <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1240,7 +1246,7 @@
         <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1266,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1292,7 +1298,7 @@
         <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1318,7 +1324,7 @@
         <v>30</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1370,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1433,10 +1439,10 @@
         <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/keyboards/sofle/keymaps/jdwh08/Magic_Map.xlsx
+++ b/keyboards/sofle/keymaps/jdwh08/Magic_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwh0\qmk_firmware\keyboards\sofle\keymaps\jdwh08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4CB1AC-1261-42AE-9BD2-042D9955355A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A38375-AE6E-414C-87DE-A4B57BE3C11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{654F23E0-90FC-4EBC-913F-3128C3BE353E}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="108">
   <si>
     <t>Start</t>
   </si>
@@ -342,6 +343,24 @@
   </si>
   <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>uring</t>
+  </si>
+  <si>
+    <t>ifferent</t>
+  </si>
+  <si>
+    <t>oin</t>
+  </si>
+  <si>
+    <t>udge</t>
+  </si>
+  <si>
+    <t>ob</t>
+  </si>
+  <si>
+    <t>ample</t>
   </si>
 </sst>
 </file>
@@ -385,11 +404,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,7 +727,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +776,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -814,10 +834,10 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
@@ -838,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
-        <v>38</v>
+      <c r="H6" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="J6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" t="s">
-        <v>38</v>
+      <c r="K6" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -866,10 +886,10 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G7" t="s">
@@ -892,10 +912,10 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G8" t="s">
@@ -918,17 +938,17 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>22</v>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -944,10 +964,10 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G10" t="s">
@@ -970,10 +990,10 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G11" t="s">
@@ -996,23 +1016,23 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
+      <c r="E12" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1022,22 +1042,22 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>99</v>
       </c>
       <c r="J13" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1048,10 +1068,10 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
@@ -1074,10 +1094,10 @@
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G15" t="s">
@@ -1100,10 +1120,10 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
@@ -1126,10 +1146,10 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G17" t="s">
@@ -1152,10 +1172,10 @@
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
@@ -1178,10 +1198,10 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G19" t="s">
@@ -1204,10 +1224,10 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G20" t="s">
@@ -1230,10 +1250,10 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G21" t="s">
@@ -1256,10 +1276,10 @@
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G22" t="s">
@@ -1282,10 +1302,10 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G23" t="s">
@@ -1308,10 +1328,10 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G24" t="s">
@@ -1334,10 +1354,10 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G25" t="s">
@@ -1350,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1360,10 +1380,10 @@
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G26" t="s">
@@ -1386,10 +1406,10 @@
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G27" t="s">
@@ -1406,25 +1426,25 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H28" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K28" t="s">
@@ -1435,7 +1455,8 @@
       <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H29" t="s">

--- a/keyboards/sofle/keymaps/jdwh08/Magic_Map.xlsx
+++ b/keyboards/sofle/keymaps/jdwh08/Magic_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwh0\qmk_firmware\keyboards\sofle\keymaps\jdwh08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A38375-AE6E-414C-87DE-A4B57BE3C11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDD6DEC-175D-4FD0-90EA-31E7C42EF801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{654F23E0-90FC-4EBC-913F-3128C3BE353E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -404,12 +403,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,7 +724,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,10 +831,10 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
@@ -860,22 +857,22 @@
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>102</v>
       </c>
       <c r="J6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -886,10 +883,10 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
       <c r="G7" t="s">
@@ -912,10 +909,10 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
       <c r="G8" t="s">
@@ -938,10 +935,10 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
@@ -964,10 +961,10 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
       <c r="G10" t="s">
@@ -990,10 +987,10 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>42</v>
       </c>
       <c r="G11" t="s">
@@ -1016,10 +1013,10 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>104</v>
       </c>
       <c r="G12" t="s">
@@ -1042,10 +1039,10 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="G13" t="s">
@@ -1068,10 +1065,10 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
@@ -1094,10 +1091,10 @@
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>44</v>
       </c>
       <c r="G15" t="s">
@@ -1120,10 +1117,10 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
@@ -1146,10 +1143,10 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>46</v>
       </c>
       <c r="G17" t="s">
@@ -1172,10 +1169,10 @@
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
@@ -1198,10 +1195,10 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="G19" t="s">
@@ -1224,10 +1221,10 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>47</v>
       </c>
       <c r="G20" t="s">
@@ -1250,10 +1247,10 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>31</v>
       </c>
       <c r="G21" t="s">
@@ -1274,13 +1271,13 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
         <v>27</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1302,10 +1299,10 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>48</v>
       </c>
       <c r="G23" t="s">
@@ -1328,10 +1325,10 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>49</v>
       </c>
       <c r="G24" t="s">
@@ -1354,10 +1351,10 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="G25" t="s">
@@ -1380,10 +1377,10 @@
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
         <v>50</v>
       </c>
       <c r="G26" t="s">
@@ -1406,10 +1403,10 @@
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
         <v>51</v>
       </c>
       <c r="G27" t="s">
@@ -1432,10 +1429,10 @@
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
         <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -1455,8 +1452,7 @@
       <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>53</v>
       </c>
       <c r="H29" t="s">
